--- a/Process Workflows/Minet_Order_Report_processing/MinetOrdeMasterFile.xlsx
+++ b/Process Workflows/Minet_Order_Report_processing/MinetOrdeMasterFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad\Desktop\GT Order\GT ORDER UPDATED 5 PROCESS\GT_Order_Process\Process Workflows\Minet_Order_Report_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad\Desktop\GT Order\GT_Order_11 process_InputTracker\GT_Order_Process\Process Workflows\Minet_Order_Report_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
